--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2031.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2031.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153650877932974</v>
+        <v>1.190705299377441</v>
       </c>
       <c r="B1">
-        <v>2.351296885642801</v>
+        <v>2.322753429412842</v>
       </c>
       <c r="C1">
-        <v>6.613405499684396</v>
+        <v>6.371648788452148</v>
       </c>
       <c r="D1">
-        <v>2.368755535498493</v>
+        <v>2.0406653881073</v>
       </c>
       <c r="E1">
-        <v>1.223165255095699</v>
+        <v>1.186985611915588</v>
       </c>
     </row>
   </sheetData>
